--- a/Pro/Extra/Table/Part.xlsx
+++ b/Pro/Extra/Table/Part.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="24600" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="25530" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Stage" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="23">
   <si>
     <t>Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -459,10 +459,10 @@
   <dimension ref="A1:I200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="C151" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="C190" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H184" sqref="H184"/>
+      <selection pane="bottomRight" activeCell="F195" sqref="F195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3018,13 +3018,13 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>24</v>
+        <v>-1</v>
       </c>
       <c r="G88">
-        <v>-1</v>
-      </c>
-      <c r="H88" s="2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="I88">
         <v>-1</v>
@@ -5338,13 +5338,13 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>25</v>
+        <v>-1</v>
       </c>
       <c r="G168">
-        <v>-1</v>
-      </c>
-      <c r="H168" s="2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H168" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="I168">
         <v>-1</v>
